--- a/error-and-solutions.xlsx
+++ b/error-and-solutions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="19320" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19320" windowHeight="6330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DAY_01" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>S.No</t>
   </si>
@@ -166,6 +166,33 @@
   </si>
   <si>
     <t>&lt;%@ taglib uri="http://java.sun.com/jstl/core" prefix="c" %&gt;                    &lt;a href="&lt;c:url value="/aboutUs"/&gt;"&gt;AboutUs&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Angular Filter Was not working</t>
+  </si>
+  <si>
+    <t>http://makitweb.com/sort-the-table-on-header-click-using-angularjs/</t>
+  </si>
+  <si>
+    <t>create bootstrap login and signup page</t>
+  </si>
+  <si>
+    <t>move data one page to another and filter data as per send data</t>
+  </si>
+  <si>
+    <t>http://docs.spring.io/spring-framework/docs/current/spring-framework-reference/html/mvc.html                                                                                                http://docs.spring.io/spring-framework/docs/current/spring-framework-reference/html/mvc.html</t>
+  </si>
+  <si>
+    <t>2 hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static resource error </t>
+  </si>
+  <si>
+    <t>It was working with all pages but when at one page where I was using PathVariable, static resources not loaded</t>
+  </si>
+  <si>
+    <t>https://www.mkyong.com/spring-mvc/spring-mvc-how-to-include-js-or-css-files-in-a-jsp-page/</t>
   </si>
 </sst>
 </file>
@@ -612,7 +639,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -622,7 +649,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="106" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -759,16 +788,31 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="20">
+        <v>42658</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D6" s="15"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="E6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="42.75" customHeight="1">
       <c r="B7" s="6"/>
+      <c r="C7" s="22" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -776,17 +820,20 @@
     <hyperlink ref="E3" r:id="rId2" display="http://stackoverflow.com/questions/9926798/eclipse-jre-system-library-j2se-1-5 "/>
     <hyperlink ref="E4" r:id="rId3"/>
     <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5" display="http://docs.spring.io/spring-framework/docs/current/spring-framework-reference/html/mvc.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="98" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -854,42 +901,62 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="45.75" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="45.75" customHeight="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="16"/>
+      <c r="B6" s="23" t="s">
+        <v>42</v>
+      </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="D6" s="15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="1:4" ht="36.75" customHeight="1"/>
-    <row r="11" spans="1:4">
-      <c r="B11" s="1"/>
-      <c r="D11" s="5"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" ht="45.75" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" ht="36.75" customHeight="1"/>
+    <row r="12" spans="1:4">
+      <c r="B12" s="1"/>
+      <c r="D12" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/error-and-solutions.xlsx
+++ b/error-and-solutions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="19320" windowHeight="6330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19320" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="DAY_01" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>S.No</t>
   </si>
@@ -193,6 +193,51 @@
   </si>
   <si>
     <t>https://www.mkyong.com/spring-mvc/spring-mvc-how-to-include-js-or-css-files-in-a-jsp-page/</t>
+  </si>
+  <si>
+    <t>use the resources from another project (Connect your Spring webapp with Persistance Project)</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/15383322/maven-how-do-i-add-a-project-as-a-dependency-of-another-project</t>
+  </si>
+  <si>
+    <t>15 mn</t>
+  </si>
+  <si>
+    <t>Creating DAO Pattern, Model Class</t>
+  </si>
+  <si>
+    <t>https://programmingenthusiast.wordpress.com/2015/05/02/a-simple-crud-tutorial-using-java-servletjsp-and-mysql/</t>
+  </si>
+  <si>
+    <t>How to Use other project Into Your project ?</t>
+  </si>
+  <si>
+    <t>Add dependancies in pom.xml (in which project you want to use)      &lt;dependency&gt;
+         &lt;groupId&gt;yourgroup&lt;/groupId&gt;
+         &lt;artifactId&gt;myejbproject&lt;/artifactId&gt;
+         &lt;version&gt;2.0&lt;/version&gt;
+         &lt;scope&gt;system&lt;/scope&gt;
+         &lt;systemPath&gt;path/to/myejbproject.jar&lt;/systemPath&gt;
+      &lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>Model data error to convert into json</t>
+  </si>
+  <si>
+    <t>http://howtodoinjava.com/spring/spring-core/how-to-use-spring-component-repository-service-and-controller-annotations/</t>
+  </si>
+  <si>
+    <t>Send data to frontEnd in form of Json</t>
+  </si>
+  <si>
+    <t>bean not found error       package name was different so add another context  tab with new basse package name                                                                                    &lt;context:component-scan base-package="com.arun.niit.rajnagar.myecom"/&gt;</t>
+  </si>
+  <si>
+    <t>5 Hrs</t>
+  </si>
+  <si>
+    <t>http://howtodoinjava.com/spring/spring-core/how-to-use-spring-component-repository-service-and-controller-annotations/                                        https://github.com/stevehanson/spring-mvc-ajax</t>
   </si>
 </sst>
 </file>
@@ -295,7 +340,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -303,14 +348,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,9 +383,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -364,6 +399,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -647,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -666,153 +710,311 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="74.25" customHeight="1">
-      <c r="A2" s="7">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="16">
         <v>42656</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45.75" customHeight="1">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="16">
         <v>42657</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45.75" customHeight="1">
-      <c r="A4" s="7">
+      <c r="A4" s="4"/>
+      <c r="B4" s="16">
+        <v>42657</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" ht="45.75" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="16">
+        <v>42657</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="20">
-        <v>42657</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="19" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="45.75" customHeight="1">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16">
+        <v>42658</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="14" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A7" s="22"/>
+      <c r="B7" s="16">
+        <v>42658</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" s="14" customFormat="1" ht="45">
+      <c r="A8" s="22">
+        <v>4</v>
+      </c>
+      <c r="B8" s="23">
+        <v>42659</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" ht="45.75" customHeight="1">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20">
-        <v>42657</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="30">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23">
+        <v>42659</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" ht="45">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23">
+        <v>42659</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45.75" customHeight="1">
-      <c r="A6" s="7">
+      <c r="H10" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="20">
-        <v>42658</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="42.75" customHeight="1">
-      <c r="B7" s="6"/>
-      <c r="C7" s="22" t="s">
-        <v>44</v>
-      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -821,9 +1023,12 @@
     <hyperlink ref="E4" r:id="rId3"/>
     <hyperlink ref="E5" r:id="rId4"/>
     <hyperlink ref="E6" r:id="rId5" display="http://docs.spring.io/spring-framework/docs/current/spring-framework-reference/html/mvc.html"/>
+    <hyperlink ref="E8" r:id="rId6"/>
+    <hyperlink ref="E9" r:id="rId7"/>
+    <hyperlink ref="E10" r:id="rId8" display="http://howtodoinjava.com/spring/spring-core/how-to-use-spring-component-repository-service-and-controller-annotations/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -831,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -845,107 +1050,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45.75" customHeight="1">
-      <c r="A2" s="7">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="315">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45.75" customHeight="1">
-      <c r="A4" s="19">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45.75" customHeight="1">
-      <c r="A5" s="19">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45.75" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="45.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="15"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" ht="36.75" customHeight="1"/>
     <row r="12" spans="1:4">
       <c r="B12" s="1"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -954,178 +1167,199 @@
     <hyperlink ref="D4" r:id="rId3"/>
     <hyperlink ref="D6" r:id="rId4"/>
     <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.625" customWidth="1"/>
-    <col min="4" max="4" width="65.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.625" customWidth="1"/>
+    <col min="5" max="5" width="65.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="45" customHeight="1">
+      <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" customHeight="1">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:6" ht="45" customHeight="1">
+      <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="315">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:6" ht="315">
+      <c r="B3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="24"/>
-    </row>
-    <row r="4" spans="1:5" ht="45" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" ht="45">
+      <c r="B4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" ht="45" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" ht="45" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" ht="45" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" ht="45" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" ht="45" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" ht="45" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:5" ht="45" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:5" ht="45" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:5" ht="45" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" ht="45" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:5" ht="45" customHeight="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:4" ht="45" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4" ht="45" customHeight="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="1:4" ht="45" customHeight="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+    <row r="5" spans="1:6" ht="120">
+      <c r="A5" s="1"/>
+      <c r="B5" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" ht="45" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" ht="45" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" ht="45" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" ht="45" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" ht="45" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" ht="45" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" ht="45" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" ht="45" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" ht="45" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" ht="45" customHeight="1">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="2:5" ht="45" customHeight="1">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="2:5" ht="45" customHeight="1">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="2:5" ht="45" customHeight="1">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
